--- a/ig/profiling_researchstudy/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/profiling_researchstudy/StructureDefinition-eclaire-researchstudy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="432">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-03T09:04:57+00:00</t>
+    <t>2023-07-03T17:19:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -341,6 +341,86 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:eclaire-review-date</t>
+  </si>
+  <si>
+    <t>eclaire-review-date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-review-date}
+</t>
+  </si>
+  <si>
+    <t>Date de dernière modification substancielle</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout d'une date de révision fonctionnelle lorque que l'on souhaite indiquer la date de la dernière modification substancielle</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-condition-details</t>
+  </si>
+  <si>
+    <t>eclaire-condition-details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-condition-details}
+</t>
+  </si>
+  <si>
+    <t>Précisions sur le sujet / Health Condition(s) or Problem(s) Studied</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de précisions sur le sujet concerné par l'essai</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-therapeutic-area</t>
+  </si>
+  <si>
+    <t>eclaire-therapeutic-area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-therapeutic-area}
+</t>
+  </si>
+  <si>
+    <t>Domaine thérapeutique concerné</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout du domaine thérapeutique concerné par l'essai</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-recruitment-period</t>
+  </si>
+  <si>
+    <t>eclaire-recruitment-period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-recruitment-period}
+</t>
+  </si>
+  <si>
+    <t>Période prévisionnelle de recrutement</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de la période prévisionnelle de recrutement l'essai</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-secondary-sponsor</t>
+  </si>
+  <si>
+    <t>eclaire-secondary-sponsor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-secondary-sponsor}
+</t>
+  </si>
+  <si>
+    <t>Promoteur(s) secondaire(s) / Secondary Sponsor(s)</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de promoteur(s) secondaire(s)</t>
+  </si>
+  <si>
     <t>ResearchStudy.modifierExtension</t>
   </si>
   <si>
@@ -789,7 +869,7 @@
     <t>ResearchStudy.phase</t>
   </si>
   <si>
-    <t>n-a | early-phase-1 | phase-1 | phase-1-phase-2 | phase-2 | phase-2-phase-3 | phase-3 | phase-4</t>
+    <t>Phase de l'essai / Study type : phase</t>
   </si>
   <si>
     <t>The stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
@@ -813,7 +893,7 @@
     <t>ResearchStudy.category</t>
   </si>
   <si>
-    <t>Classifications for the study</t>
+    <t>Type d'essai (Study type : type of study</t>
   </si>
   <si>
     <t>Codes categorizing the type of study such as investigational vs. observational, type of blinding, type of randomization, safety vs. efficacy, etc.</t>
@@ -852,7 +932,7 @@
     <t>ResearchStudy.condition</t>
   </si>
   <si>
-    <t>Sujet concerné /  Problem(s) Studied</t>
+    <t>Sujet concerné /  Problem(s) Studied exemple code MedDRA</t>
   </si>
   <si>
     <t>The condition that is the focus of the study.  For example, In a study to examine risk factors for Lupus, might have as an inclusion criterion "healthy volunteer", but the target condition code would be a Lupus SNOMED code.</t>
@@ -877,7 +957,7 @@
 </t>
   </si>
   <si>
-    <t>Contact details for the study</t>
+    <t>Contact (Contact for public / scientific queries)</t>
   </si>
   <si>
     <t>Contact details to assist a user in learning more about or engaging with the study.</t>
@@ -1079,7 +1159,7 @@
 </t>
   </si>
   <si>
-    <t>Facility where study activities are conducted</t>
+    <t>Lieux / Countries of Recruitment</t>
   </si>
   <si>
     <t>A facility in which study activities are conducted.</t>
@@ -1570,7 +1650,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO62"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1579,16 +1659,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.78515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.2578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.0234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1867,7 +1947,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>46</v>
@@ -2559,43 +2639,41 @@
         <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>37</v>
       </c>
@@ -2631,19 +2709,19 @@
         <v>37</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>35</v>
@@ -2664,7 +2742,7 @@
         <v>37</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>37</v>
@@ -2678,9 +2756,11 @@
         <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>37</v>
       </c>
@@ -2689,7 +2769,7 @@
         <v>35</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>37</v>
@@ -2698,21 +2778,19 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>37</v>
       </c>
@@ -2748,19 +2826,19 @@
         <v>37</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>35</v>
@@ -2772,33 +2850,33 @@
         <v>58</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>119</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>37</v>
@@ -2817,21 +2895,19 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>37</v>
       </c>
@@ -2879,7 +2955,7 @@
         <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>35</v>
@@ -2891,32 +2967,34 @@
         <v>58</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>119</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>37</v>
       </c>
@@ -2937,13 +3015,13 @@
         <v>37</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2994,19 +3072,19 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>37</v>
@@ -3015,7 +3093,7 @@
         <v>37</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>37</v>
@@ -3026,14 +3104,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="D13" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3052,17 +3132,15 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>37</v>
@@ -3099,19 +3177,19 @@
         <v>37</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>35</v>
@@ -3132,7 +3210,7 @@
         <v>37</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>37</v>
@@ -3143,21 +3221,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>37</v>
@@ -3166,22 +3244,22 @@
         <v>47</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>37</v>
@@ -3191,7 +3269,7 @@
         <v>37</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>37</v>
@@ -3206,52 +3284,52 @@
         <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>37</v>
@@ -3262,10 +3340,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3276,7 +3354,7 @@
         <v>35</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>37</v>
@@ -3288,19 +3366,17 @@
         <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -3325,37 +3401,37 @@
         <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>58</v>
@@ -3364,29 +3440,31 @@
         <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>37</v>
       </c>
@@ -3407,19 +3485,17 @@
         <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>37</v>
@@ -3432,7 +3508,7 @@
         <v>37</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>37</v>
@@ -3468,13 +3544,13 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>58</v>
@@ -3483,27 +3559,27 @@
         <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>37</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3523,20 +3599,18 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>37</v>
@@ -3549,7 +3623,7 @@
         <v>37</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>37</v>
@@ -3585,7 +3659,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
@@ -3594,19 +3668,19 @@
         <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>37</v>
@@ -3617,21 +3691,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>37</v>
@@ -3640,19 +3714,19 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3690,40 +3764,40 @@
         <v>37</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>37</v>
@@ -3734,10 +3808,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3745,7 +3819,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>46</v>
@@ -3754,24 +3828,26 @@
         <v>37</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>37</v>
       </c>
@@ -3780,7 +3856,7 @@
         <v>37</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>37</v>
@@ -3795,13 +3871,13 @@
         <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>37</v>
@@ -3819,7 +3895,7 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
@@ -3831,16 +3907,16 @@
         <v>58</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>37</v>
@@ -3851,14 +3927,12 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>37</v>
       </c>
@@ -3867,7 +3941,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>37</v>
@@ -3879,17 +3953,19 @@
         <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>37</v>
@@ -3914,13 +3990,13 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>37</v>
@@ -3938,13 +4014,13 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>58</v>
@@ -3953,27 +4029,27 @@
         <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>119</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3993,19 +4069,23 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>37</v>
       </c>
@@ -4017,7 +4097,7 @@
         <v>37</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>37</v>
@@ -4053,7 +4133,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
@@ -4062,19 +4142,19 @@
         <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
@@ -4085,21 +4165,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>37</v>
@@ -4108,19 +4188,19 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4134,7 +4214,7 @@
         <v>37</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>37</v>
@@ -4158,40 +4238,40 @@
         <v>37</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>37</v>
@@ -4205,7 +4285,7 @@
         <v>201</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4213,7 +4293,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>46</v>
@@ -4222,26 +4302,24 @@
         <v>37</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>37</v>
       </c>
@@ -4250,7 +4328,7 @@
         <v>37</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>37</v>
@@ -4265,13 +4343,13 @@
         <v>37</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>37</v>
@@ -4289,7 +4367,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
@@ -4301,16 +4379,16 @@
         <v>58</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>37</v>
@@ -4321,10 +4399,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4347,20 +4425,18 @@
         <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>37</v>
       </c>
@@ -4384,13 +4460,13 @@
         <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>37</v>
@@ -4408,7 +4484,7 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
@@ -4420,16 +4496,16 @@
         <v>58</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>37</v>
@@ -4440,12 +4516,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>37</v>
       </c>
@@ -4454,7 +4532,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>37</v>
@@ -4466,19 +4544,17 @@
         <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>37</v>
@@ -4491,7 +4567,7 @@
         <v>37</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>37</v>
@@ -4527,13 +4603,13 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>58</v>
@@ -4542,27 +4618,27 @@
         <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>37</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4582,20 +4658,18 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>37</v>
@@ -4608,7 +4682,7 @@
         <v>37</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>37</v>
@@ -4644,7 +4718,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
@@ -4653,19 +4727,19 @@
         <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>37</v>
@@ -4676,21 +4750,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -4699,19 +4773,19 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4749,40 +4823,40 @@
         <v>37</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>37</v>
@@ -4793,10 +4867,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4804,7 +4878,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>46</v>
@@ -4813,24 +4887,26 @@
         <v>37</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>37</v>
       </c>
@@ -4839,7 +4915,7 @@
         <v>37</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>37</v>
@@ -4854,13 +4930,13 @@
         <v>37</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>37</v>
@@ -4878,7 +4954,7 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
@@ -4890,16 +4966,16 @@
         <v>58</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -4910,10 +4986,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4936,18 +5012,20 @@
         <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>37</v>
       </c>
@@ -4971,13 +5049,13 @@
         <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>37</v>
@@ -4995,7 +5073,7 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
@@ -5010,16 +5088,16 @@
         <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>37</v>
@@ -5027,10 +5105,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5041,7 +5119,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>37</v>
@@ -5053,18 +5131,20 @@
         <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>215</v>
+        <v>62</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>37</v>
       </c>
@@ -5076,7 +5156,7 @@
         <v>37</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>37</v>
@@ -5112,31 +5192,31 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>221</v>
+        <v>37</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>37</v>
@@ -5144,21 +5224,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>37</v>
@@ -5170,20 +5250,18 @@
         <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>37</v>
       </c>
@@ -5195,7 +5273,7 @@
         <v>37</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>37</v>
@@ -5231,28 +5309,28 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>37</v>
@@ -5263,10 +5341,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5274,7 +5352,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>46</v>
@@ -5283,22 +5361,22 @@
         <v>37</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5324,13 +5402,13 @@
         <v>37</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>234</v>
+        <v>37</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>37</v>
@@ -5348,10 +5426,10 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>46</v>
@@ -5360,30 +5438,30 @@
         <v>58</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>237</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5406,16 +5484,16 @@
         <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5441,13 +5519,13 @@
         <v>37</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>37</v>
@@ -5465,7 +5543,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
@@ -5477,16 +5555,16 @@
         <v>58</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>37</v>
@@ -5497,10 +5575,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5523,16 +5601,16 @@
         <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5558,13 +5636,13 @@
         <v>37</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>37</v>
@@ -5582,7 +5660,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
@@ -5597,16 +5675,16 @@
         <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>37</v>
@@ -5614,10 +5692,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5640,16 +5718,16 @@
         <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5675,10 +5753,10 @@
         <v>37</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>37</v>
@@ -5699,7 +5777,7 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
@@ -5711,19 +5789,19 @@
         <v>58</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>37</v>
@@ -5731,14 +5809,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5757,18 +5835,20 @@
         <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>147</v>
+        <v>249</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>37</v>
       </c>
@@ -5792,10 +5872,10 @@
         <v>37</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>264</v>
+        <v>37</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>37</v>
@@ -5816,7 +5896,7 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -5828,30 +5908,30 @@
         <v>58</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>267</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5859,31 +5939,31 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5909,13 +5989,13 @@
         <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>37</v>
@@ -5933,13 +6013,13 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>58</v>
@@ -5948,27 +6028,27 @@
         <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>274</v>
+        <v>37</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5979,7 +6059,7 @@
         <v>35</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>37</v>
@@ -5991,15 +6071,17 @@
         <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>37</v>
@@ -6024,13 +6106,13 @@
         <v>37</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>37</v>
+        <v>267</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>37</v>
@@ -6048,13 +6130,13 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>58</v>
@@ -6063,16 +6145,16 @@
         <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>280</v>
+        <v>37</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>37</v>
@@ -6080,10 +6162,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6094,7 +6176,7 @@
         <v>35</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>37</v>
@@ -6103,19 +6185,19 @@
         <v>37</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>282</v>
+        <v>172</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6141,13 +6223,13 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>37</v>
+        <v>277</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -6165,13 +6247,13 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>58</v>
@@ -6180,16 +6262,16 @@
         <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>37</v>
@@ -6197,10 +6279,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6223,16 +6305,16 @@
         <v>47</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6258,10 +6340,10 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>37</v>
@@ -6282,7 +6364,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -6297,16 +6379,16 @@
         <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
@@ -6314,10 +6396,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6340,16 +6422,16 @@
         <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6375,13 +6457,13 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>152</v>
+        <v>275</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>298</v>
+        <v>37</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>37</v>
@@ -6399,7 +6481,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6414,27 +6496,27 @@
         <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>37</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6445,7 +6527,7 @@
         <v>35</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>37</v>
@@ -6454,19 +6536,19 @@
         <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>301</v>
+        <v>172</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6492,13 +6574,13 @@
         <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>37</v>
@@ -6516,13 +6598,13 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>58</v>
@@ -6531,31 +6613,31 @@
         <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>37</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>308</v>
+        <v>37</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6574,17 +6656,15 @@
         <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>37</v>
@@ -6633,7 +6713,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -6645,41 +6725,41 @@
         <v>58</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>314</v>
+        <v>67</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>316</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>318</v>
+        <v>37</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>37</v>
@@ -6688,19 +6768,19 @@
         <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>178</v>
+        <v>307</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>181</v>
+        <v>310</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6750,42 +6830,42 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>323</v>
+        <v>67</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>325</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6796,7 +6876,7 @@
         <v>35</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>37</v>
@@ -6808,16 +6888,16 @@
         <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6843,10 +6923,10 @@
         <v>37</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>37</v>
+        <v>316</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>37</v>
@@ -6867,42 +6947,42 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>332</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6913,7 +6993,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>37</v>
@@ -6925,16 +7005,16 @@
         <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>334</v>
+        <v>172</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6960,13 +7040,13 @@
         <v>37</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>37</v>
+        <v>322</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>37</v>
+        <v>323</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>37</v>
@@ -6984,42 +7064,42 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>339</v>
+        <v>37</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>332</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7030,7 +7110,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>37</v>
@@ -7039,19 +7119,19 @@
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>218</v>
+        <v>329</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7101,53 +7181,53 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>338</v>
+        <v>67</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>346</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>37</v>
+        <v>333</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>37</v>
@@ -7159,16 +7239,16 @@
         <v>47</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>147</v>
+        <v>334</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>241</v>
+        <v>337</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7194,13 +7274,13 @@
         <v>37</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>350</v>
+        <v>37</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>351</v>
+        <v>37</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>37</v>
@@ -7218,53 +7298,53 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>246</v>
+        <v>339</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>37</v>
+        <v>343</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>37</v>
@@ -7273,19 +7353,19 @@
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>356</v>
+        <v>203</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>359</v>
+        <v>206</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7335,42 +7415,42 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>60</v>
+        <v>347</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>37</v>
+        <v>349</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>37</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7381,7 +7461,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -7390,18 +7470,20 @@
         <v>37</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>363</v>
+        <v>213</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -7450,42 +7532,42 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>67</v>
+        <v>355</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>37</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7505,18 +7587,20 @@
         <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>125</v>
+        <v>359</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>126</v>
+        <v>360</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>37</v>
@@ -7565,7 +7649,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>128</v>
+        <v>358</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -7574,37 +7658,37 @@
         <v>46</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>37</v>
+        <v>362</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>67</v>
+        <v>363</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>37</v>
+        <v>364</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>37</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7620,19 +7704,19 @@
         <v>37</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>94</v>
+        <v>366</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>95</v>
+        <v>367</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>131</v>
+        <v>368</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>97</v>
+        <v>243</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7670,19 +7754,19 @@
         <v>37</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>132</v>
+        <v>365</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -7694,66 +7778,64 @@
         <v>58</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>218</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>37</v>
+        <v>369</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>60</v>
+        <v>363</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>37</v>
+        <v>370</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>37</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>371</v>
+        <v>37</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>37</v>
       </c>
@@ -7777,13 +7859,13 @@
         <v>37</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>37</v>
+        <v>375</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>37</v>
+        <v>376</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>37</v>
@@ -7801,42 +7883,42 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>37</v>
+        <v>377</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>60</v>
+        <v>271</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>37</v>
+        <v>378</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>37</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7844,10 +7926,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
@@ -7859,16 +7941,16 @@
         <v>37</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>125</v>
+        <v>381</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>211</v>
+        <v>384</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7918,13 +8000,13 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>58</v>
@@ -7933,16 +8015,16 @@
         <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>67</v>
+        <v>386</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>379</v>
+        <v>37</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>37</v>
@@ -7950,10 +8032,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7964,7 +8046,7 @@
         <v>35</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>37</v>
@@ -7976,17 +8058,15 @@
         <v>37</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>147</v>
+        <v>388</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>37</v>
@@ -8035,13 +8115,13 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>58</v>
@@ -8050,16 +8130,16 @@
         <v>59</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>37</v>
@@ -8067,10 +8147,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8093,17 +8173,15 @@
         <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>37</v>
@@ -8152,7 +8230,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>385</v>
+        <v>153</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -8161,13 +8239,13 @@
         <v>46</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>388</v>
+        <v>37</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>37</v>
@@ -8176,7 +8254,7 @@
         <v>67</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>389</v>
+        <v>37</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>37</v>
@@ -8184,14 +8262,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8210,15 +8288,17 @@
         <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>363</v>
+        <v>94</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>391</v>
+        <v>95</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>37</v>
@@ -8255,19 +8335,19 @@
         <v>37</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>390</v>
+        <v>157</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -8279,16 +8359,16 @@
         <v>58</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>393</v>
+        <v>37</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>37</v>
@@ -8299,42 +8379,46 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>37</v>
+        <v>396</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>126</v>
+        <v>397</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>37</v>
       </c>
@@ -8382,19 +8466,19 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>128</v>
+        <v>399</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>37</v>
@@ -8403,7 +8487,7 @@
         <v>37</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>37</v>
@@ -8414,21 +8498,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>37</v>
@@ -8440,16 +8524,16 @@
         <v>37</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>95</v>
+        <v>401</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>131</v>
+        <v>402</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>97</v>
+        <v>236</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8487,43 +8571,43 @@
         <v>37</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>132</v>
+        <v>400</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>37</v>
+        <v>403</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>37</v>
+        <v>404</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>37</v>
@@ -8531,46 +8615,44 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>371</v>
+        <v>37</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>37</v>
       </c>
@@ -8618,31 +8700,31 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>37</v>
+        <v>408</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>60</v>
+        <v>271</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>37</v>
+        <v>409</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>37</v>
@@ -8650,10 +8732,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8676,16 +8758,16 @@
         <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8735,7 +8817,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -8750,7 +8832,7 @@
         <v>59</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>37</v>
@@ -8759,7 +8841,7 @@
         <v>67</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>37</v>
+        <v>414</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>37</v>
@@ -8767,10 +8849,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8781,7 +8863,7 @@
         <v>35</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>37</v>
@@ -8793,17 +8875,15 @@
         <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>147</v>
+        <v>388</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>37</v>
@@ -8828,13 +8908,13 @@
         <v>37</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>404</v>
+        <v>37</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>405</v>
+        <v>37</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>37</v>
@@ -8852,13 +8932,13 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>58</v>
@@ -8867,18 +8947,603 @@
         <v>59</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO62" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>37</v>
       </c>
     </row>

--- a/ig/profiling_researchstudy/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/profiling_researchstudy/StructureDefinition-eclaire-researchstudy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-03T17:19:20+00:00</t>
+    <t>2023-07-04T17:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -418,7 +418,7 @@
     <t>Promoteur(s) secondaire(s) / Secondary Sponsor(s)</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de promoteur(s) secondaire(s)</t>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
   </si>
   <si>
     <t>ResearchStudy.modifierExtension</t>
@@ -967,6 +967,69 @@
   </si>
   <si>
     <t>Central Contact; Central Contact Backup; Overall Study Officials; Facility Contact &amp; Backup (if Study tied to only one location); Investigators</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.extension:eclaire-contact-type</t>
+  </si>
+  <si>
+    <t>eclaire-contact-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-type}
+</t>
+  </si>
+  <si>
+    <t>type de contact : Public ou Scientific</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE qui indique le type de Contact! : Public ou Scientific</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.name</t>
+  </si>
+  <si>
+    <t>Name of an individual to contact</t>
+  </si>
+  <si>
+    <t>The name of an individual to contact.</t>
+  </si>
+  <si>
+    <t>If there is no named individual, the telecom information is for the organization as a whole.</t>
+  </si>
+  <si>
+    <t>ContactDetail.name</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>Contact details for individual or organization</t>
+  </si>
+  <si>
+    <t>The contact details for the individual (if a name was provided) or the organization.</t>
+  </si>
+  <si>
+    <t>ContactDetail.telecom</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>XTN</t>
+  </si>
+  <si>
+    <t>TEL</t>
   </si>
   <si>
     <t>ResearchStudy.relatedArtifact</t>
@@ -1650,7 +1713,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AO72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1659,7 +1722,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.2578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.0234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -6759,7 +6822,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>37</v>
@@ -6771,17 +6834,15 @@
         <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>307</v>
+        <v>150</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>308</v>
+        <v>151</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>37</v>
@@ -6830,22 +6891,22 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>311</v>
+        <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>37</v>
@@ -6854,7 +6915,7 @@
         <v>67</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>312</v>
+        <v>37</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>37</v>
@@ -6862,14 +6923,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6885,19 +6946,19 @@
         <v>37</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>314</v>
+        <v>95</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>315</v>
+        <v>156</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>266</v>
+        <v>97</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6923,10 +6984,10 @@
         <v>37</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>316</v>
+        <v>37</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>37</v>
@@ -6935,19 +6996,19 @@
         <v>37</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>313</v>
+        <v>157</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
@@ -6959,19 +7020,19 @@
         <v>58</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>317</v>
+        <v>37</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>271</v>
+        <v>60</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>318</v>
+        <v>37</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>37</v>
@@ -6979,12 +7040,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>37</v>
       </c>
@@ -6993,7 +7056,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>37</v>
@@ -7002,20 +7065,18 @@
         <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>37</v>
@@ -7040,13 +7101,13 @@
         <v>37</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>323</v>
+        <v>37</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>37</v>
@@ -7064,7 +7125,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>319</v>
+        <v>157</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -7076,16 +7137,16 @@
         <v>58</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -7096,10 +7157,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7119,19 +7180,19 @@
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>150</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7181,7 +7242,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
@@ -7196,7 +7257,7 @@
         <v>59</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>330</v>
+        <v>37</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>37</v>
@@ -7205,7 +7266,7 @@
         <v>67</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>331</v>
+        <v>37</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>37</v>
@@ -7213,14 +7274,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>333</v>
+        <v>37</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7239,17 +7300,15 @@
         <v>47</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>37</v>
@@ -7298,7 +7357,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
@@ -7310,41 +7369,41 @@
         <v>58</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>338</v>
+        <v>37</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>37</v>
+        <v>324</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>340</v>
+        <v>37</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>341</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>343</v>
+        <v>37</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>37</v>
@@ -7353,19 +7412,19 @@
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>203</v>
+        <v>327</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>206</v>
+        <v>330</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7415,42 +7474,42 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>348</v>
+        <v>67</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>350</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7461,7 +7520,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -7473,16 +7532,16 @@
         <v>47</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7508,10 +7567,10 @@
         <v>37</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>37</v>
+        <v>336</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>37</v>
@@ -7532,42 +7591,42 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>355</v>
+        <v>271</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>357</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7578,7 +7637,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -7590,16 +7649,16 @@
         <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>359</v>
+        <v>172</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7625,13 +7684,13 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>37</v>
+        <v>342</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>37</v>
+        <v>343</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>37</v>
@@ -7649,42 +7708,42 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>364</v>
+        <v>37</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>357</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7695,7 +7754,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>37</v>
@@ -7704,19 +7763,19 @@
         <v>37</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>243</v>
+        <v>349</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7766,53 +7825,53 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>363</v>
+        <v>67</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>371</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>37</v>
+        <v>353</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>37</v>
@@ -7824,16 +7883,16 @@
         <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>172</v>
+        <v>354</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>266</v>
+        <v>357</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7859,13 +7918,13 @@
         <v>37</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>375</v>
+        <v>37</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>376</v>
+        <v>37</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>37</v>
@@ -7883,53 +7942,53 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>271</v>
+        <v>359</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>37</v>
+        <v>363</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
@@ -7938,19 +7997,19 @@
         <v>37</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>381</v>
+        <v>203</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>384</v>
+        <v>206</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8000,42 +8059,42 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>60</v>
+        <v>367</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>37</v>
+        <v>369</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>37</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8046,7 +8105,7 @@
         <v>35</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>37</v>
@@ -8055,18 +8114,20 @@
         <v>37</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>388</v>
+        <v>213</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>37</v>
@@ -8115,42 +8176,42 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>67</v>
+        <v>375</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>37</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8170,18 +8231,20 @@
         <v>37</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>150</v>
+        <v>379</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>151</v>
+        <v>380</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>37</v>
@@ -8230,7 +8293,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>153</v>
+        <v>378</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -8239,37 +8302,37 @@
         <v>46</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>37</v>
+        <v>382</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>67</v>
+        <v>383</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>37</v>
+        <v>384</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>37</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8285,19 +8348,19 @@
         <v>37</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>94</v>
+        <v>386</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>95</v>
+        <v>387</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>156</v>
+        <v>388</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>97</v>
+        <v>243</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8335,19 +8398,19 @@
         <v>37</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>157</v>
+        <v>385</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -8359,66 +8422,64 @@
         <v>58</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>218</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>37</v>
+        <v>389</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>60</v>
+        <v>383</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>37</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>396</v>
+        <v>37</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>37</v>
       </c>
@@ -8442,13 +8503,13 @@
         <v>37</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>37</v>
+        <v>395</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>37</v>
+        <v>396</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>37</v>
@@ -8466,34 +8527,34 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>37</v>
+        <v>397</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>60</v>
+        <v>271</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>37</v>
+        <v>398</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>37</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59">
@@ -8509,10 +8570,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>37</v>
@@ -8524,16 +8585,16 @@
         <v>37</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>150</v>
+        <v>401</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>236</v>
+        <v>404</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8586,10 +8647,10 @@
         <v>400</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>58</v>
@@ -8598,16 +8659,16 @@
         <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>67</v>
+        <v>406</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>404</v>
+        <v>37</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>37</v>
@@ -8615,10 +8676,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8629,7 +8690,7 @@
         <v>35</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>37</v>
@@ -8641,17 +8702,15 @@
         <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>172</v>
+        <v>408</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>37</v>
@@ -8700,13 +8759,13 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>58</v>
@@ -8715,16 +8774,16 @@
         <v>59</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>271</v>
+        <v>67</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>37</v>
@@ -8732,10 +8791,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8761,14 +8820,12 @@
         <v>150</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>411</v>
+        <v>151</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>37</v>
@@ -8817,7 +8874,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>410</v>
+        <v>153</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -8826,13 +8883,13 @@
         <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>413</v>
+        <v>37</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>37</v>
@@ -8841,7 +8898,7 @@
         <v>67</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>414</v>
+        <v>37</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>37</v>
@@ -8849,14 +8906,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8875,15 +8932,17 @@
         <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>388</v>
+        <v>94</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>416</v>
+        <v>95</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>37</v>
@@ -8920,19 +8979,19 @@
         <v>37</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>415</v>
+        <v>157</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -8944,16 +9003,16 @@
         <v>58</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>418</v>
+        <v>37</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>37</v>
@@ -8964,42 +9023,46 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>37</v>
+        <v>416</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>151</v>
+        <v>417</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>37</v>
       </c>
@@ -9047,19 +9110,19 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>153</v>
+        <v>419</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>37</v>
@@ -9068,7 +9131,7 @@
         <v>37</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>37</v>
@@ -9086,14 +9149,14 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>37</v>
@@ -9105,16 +9168,16 @@
         <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>95</v>
+        <v>421</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>156</v>
+        <v>422</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>97</v>
+        <v>236</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9152,43 +9215,43 @@
         <v>37</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>157</v>
+        <v>420</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>37</v>
+        <v>423</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>37</v>
+        <v>424</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>37</v>
@@ -9196,46 +9259,44 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>396</v>
+        <v>37</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>37</v>
       </c>
@@ -9283,31 +9344,31 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>37</v>
+        <v>428</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>60</v>
+        <v>271</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>37</v>
+        <v>429</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -9315,10 +9376,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9344,10 +9405,10 @@
         <v>150</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>236</v>
@@ -9400,7 +9461,7 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
@@ -9415,7 +9476,7 @@
         <v>59</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>37</v>
@@ -9424,7 +9485,7 @@
         <v>67</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>37</v>
+        <v>434</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>37</v>
@@ -9432,10 +9493,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9446,7 +9507,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>37</v>
@@ -9458,17 +9519,15 @@
         <v>37</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>172</v>
+        <v>408</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>37</v>
@@ -9493,13 +9552,13 @@
         <v>37</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>429</v>
+        <v>37</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>430</v>
+        <v>37</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>37</v>
@@ -9517,13 +9576,13 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>58</v>
@@ -9532,18 +9591,603 @@
         <v>59</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AM72" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AN67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO67" t="s" s="2">
+      <c r="AN72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO72" t="s" s="2">
         <v>37</v>
       </c>
     </row>

--- a/ig/profiling_researchstudy/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/profiling_researchstudy/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T17:45:33+00:00</t>
+    <t>2023-07-04T19:15:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/profiling_researchstudy/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/profiling_researchstudy/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T19:15:23+00:00</t>
+    <t>2023-07-05T07:22:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -475,16 +475,16 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire</t>
-  </si>
-  <si>
-    <t>idPrimaire</t>
+    <t>ResearchStudy.identifier:idPrimary</t>
+  </si>
+  <si>
+    <t>idPrimary</t>
   </si>
   <si>
     <t>Identifiant primaire de l'essai clinique / Primary Registry and Trial Identifying Number</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.id</t>
+    <t>ResearchStudy.identifier:idPrimary.id</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.id</t>
@@ -503,7 +503,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.extension</t>
+    <t>ResearchStudy.identifier:idPrimary.extension</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.extension</t>
@@ -515,7 +515,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.use</t>
+    <t>ResearchStudy.identifier:idPrimary.use</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.use</t>
@@ -551,7 +551,7 @@
     <t>Role.code or implied by context</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.type</t>
+    <t>ResearchStudy.identifier:idPrimary.type</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.type</t>
@@ -588,7 +588,7 @@
     <t>CX.5</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.system</t>
+    <t>ResearchStudy.identifier:idPrimary.system</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.system</t>
@@ -618,7 +618,7 @@
     <t>II.root or Role.id.root</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.value</t>
+    <t>ResearchStudy.identifier:idPrimary.value</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.value</t>
@@ -645,7 +645,7 @@
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.period</t>
+    <t>ResearchStudy.identifier:idPrimary.period</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.period</t>
@@ -678,7 +678,7 @@
     <t>Role.effectiveTime or implied by context</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.assigner</t>
+    <t>ResearchStudy.identifier:idPrimary.assigner</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.assigner</t>
@@ -710,40 +710,40 @@
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idSecondaire</t>
-  </si>
-  <si>
-    <t>idSecondaire</t>
+    <t>ResearchStudy.identifier:idSecondary</t>
+  </si>
+  <si>
+    <t>idSecondary</t>
   </si>
   <si>
     <t>identifiants secondaires / Secondary Identifying Numbers (e.g., protocol number) if available.  Also include other trial registries that have issued an identifying number to this trial. There is no limit on the number of Secondary identifying numbers that can be provided.</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idSecondaire.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondaire.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondaire.use</t>
+    <t>ResearchStudy.identifier:idSecondary.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.use</t>
   </si>
   <si>
     <t>secondary</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idSecondaire.type</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondaire.system</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondaire.value</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondaire.period</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondaire.assigner</t>
+    <t>ResearchStudy.identifier:idSecondary.type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.value</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.period</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.assigner</t>
   </si>
   <si>
     <t>ResearchStudy.title</t>
@@ -893,7 +893,7 @@
     <t>ResearchStudy.category</t>
   </si>
   <si>
-    <t>Type d'essai (Study type : type of study</t>
+    <t>Type d'essai  / Study type : type of study</t>
   </si>
   <si>
     <t>Codes categorizing the type of study such as investigational vs. observational, type of blinding, type of randomization, safety vs. efficacy, etc.</t>
@@ -988,7 +988,7 @@
     <t>type de contact : Public ou Scientific</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du projet ECLAIRE qui indique le type de Contact! : Public ou Scientific</t>
+    <t>Extension créée dans le cadre du projet ECLAIRE qui indique le type de Contact : Public ou Scientific</t>
   </si>
   <si>
     <t>ResearchStudy.contact.name</t>

--- a/ig/profiling_researchstudy/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/profiling_researchstudy/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-05T07:22:55+00:00</t>
+    <t>2023-07-05T09:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/profiling_researchstudy/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/profiling_researchstudy/StructureDefinition-eclaire-researchstudy.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$72</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-05T09:33:26+00:00</t>
+    <t>2023-07-05T09:53:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1547,6 +1550,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1728,7 +1746,7 @@
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="95.63671875" customWidth="true" bestFit="true"/>
@@ -1880,7 +1898,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>45</v>
       </c>
@@ -1893,7 +1911,7 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s" s="2">
         <v>46</v>
@@ -1997,7 +2015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>53</v>
       </c>
@@ -2112,7 +2130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>61</v>
       </c>
@@ -2229,7 +2247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>68</v>
       </c>
@@ -2346,7 +2364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>77</v>
       </c>
@@ -2463,7 +2481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>85</v>
       </c>
@@ -2580,7 +2598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>92</v>
       </c>
@@ -2697,7 +2715,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>103</v>
       </c>
@@ -2814,7 +2832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>108</v>
       </c>
@@ -2931,7 +2949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>113</v>
       </c>
@@ -3048,7 +3066,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>118</v>
       </c>
@@ -3165,7 +3183,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>123</v>
       </c>
@@ -3282,7 +3300,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>128</v>
       </c>
@@ -3401,7 +3419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>133</v>
       </c>
@@ -3518,7 +3536,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>145</v>
       </c>
@@ -3539,7 +3557,7 @@
         <v>46</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>37</v>
@@ -3637,7 +3655,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>148</v>
       </c>
@@ -3752,7 +3770,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>154</v>
       </c>
@@ -3869,7 +3887,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>158</v>
       </c>
@@ -3988,7 +4006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>170</v>
       </c>
@@ -4107,7 +4125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>182</v>
       </c>
@@ -4226,7 +4244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>192</v>
       </c>
@@ -4343,7 +4361,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>201</v>
       </c>
@@ -4460,7 +4478,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>211</v>
       </c>
@@ -4577,7 +4595,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>221</v>
       </c>
@@ -4598,7 +4616,7 @@
         <v>36</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>37</v>
@@ -4696,7 +4714,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>224</v>
       </c>
@@ -4811,7 +4829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>225</v>
       </c>
@@ -4928,7 +4946,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>226</v>
       </c>
@@ -5047,7 +5065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>228</v>
       </c>
@@ -5166,7 +5184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>229</v>
       </c>
@@ -5285,7 +5303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>230</v>
       </c>
@@ -5402,7 +5420,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>231</v>
       </c>
@@ -5519,7 +5537,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>232</v>
       </c>
@@ -5636,7 +5654,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>233</v>
       </c>
@@ -5753,7 +5771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>239</v>
       </c>
@@ -5870,7 +5888,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>247</v>
       </c>
@@ -5989,7 +6007,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>255</v>
       </c>
@@ -6106,7 +6124,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>263</v>
       </c>
@@ -6223,7 +6241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>272</v>
       </c>
@@ -6340,7 +6358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>280</v>
       </c>
@@ -6457,7 +6475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>286</v>
       </c>
@@ -6574,7 +6592,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>293</v>
       </c>
@@ -6691,7 +6709,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>300</v>
       </c>
@@ -6806,7 +6824,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>306</v>
       </c>
@@ -6921,7 +6939,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>307</v>
       </c>
@@ -7038,7 +7056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>308</v>
       </c>
@@ -7155,7 +7173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>313</v>
       </c>
@@ -7272,7 +7290,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>318</v>
       </c>
@@ -7387,7 +7405,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>326</v>
       </c>
@@ -7504,7 +7522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>333</v>
       </c>
@@ -7621,7 +7639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>339</v>
       </c>
@@ -7738,7 +7756,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>345</v>
       </c>
@@ -7855,7 +7873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>352</v>
       </c>
@@ -7972,7 +7990,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>362</v>
       </c>
@@ -8089,7 +8107,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>371</v>
       </c>
@@ -8206,7 +8224,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>378</v>
       </c>
@@ -8323,7 +8341,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>385</v>
       </c>
@@ -8440,7 +8458,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>392</v>
       </c>
@@ -8557,7 +8575,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>400</v>
       </c>
@@ -8674,7 +8692,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>407</v>
       </c>
@@ -8789,7 +8807,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>413</v>
       </c>
@@ -8904,7 +8922,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>414</v>
       </c>
@@ -9021,7 +9039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>415</v>
       </c>
@@ -9140,7 +9158,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>420</v>
       </c>
@@ -9257,7 +9275,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>425</v>
       </c>
@@ -9374,7 +9392,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>430</v>
       </c>
@@ -9491,7 +9509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>435</v>
       </c>
@@ -9606,7 +9624,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>439</v>
       </c>
@@ -9721,7 +9739,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
         <v>440</v>
       </c>
@@ -9838,7 +9856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
         <v>441</v>
       </c>
@@ -9957,7 +9975,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
         <v>442</v>
       </c>
@@ -10074,7 +10092,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
         <v>446</v>
       </c>
@@ -10192,6 +10210,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO72">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI71">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>